--- a/biology/Botanique/Meconopsis_autumnalis/Meconopsis_autumnalis.xlsx
+++ b/biology/Botanique/Meconopsis_autumnalis/Meconopsis_autumnalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Meconopsis autumnalis est une espèce de plantes herbacées à fleurs blanches tirant vers le jaune appartenant à la famille des Papaveraceae (famille des Pavots), appartenant à la série Robustae et endémique de la région de Ganesh Himal au centre du Népal, où il a été découvert en 2008 lors d'une expédition de recherche menée par l'Université d'Aberdeen. En plus de plusieurs caractéristiques morphologiques, l'espèce se caractérise par sa floraison tardive (comme en témoigne l'étymologie spécifique). Des spécimens de M. autumnalis avaient déjà été recueillis à deux reprises par le botaniste J. D. A. Stainton lors d'une expédition menée au Népal en 1962.
 </t>
